--- a/assigned_data.xlsx
+++ b/assigned_data.xlsx
@@ -423,9 +423,9 @@
   <cols>
     <col width="16.8" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="10.8" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
-    <col width="8.4" customWidth="1" min="5" max="5"/>
+    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="8.4" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -435,11 +435,7 @@
           <t>Team Manager</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -476,11 +472,7 @@
           <t>Pak 5 (Truck)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Nielsen</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -492,18 +484,18 @@
           <t>Pak 5 (Gulv)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NyMed</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Nielsen</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>alexx</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>alexx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -513,13 +505,17 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -528,11 +524,7 @@
           <t>Pak 2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -545,12 +537,12 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kaya</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mikkels</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -560,16 +552,8 @@
           <t>Pak 4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Kaya</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NyMed</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
@@ -595,7 +579,11 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>mikkels</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>

--- a/assigned_data.xlsx
+++ b/assigned_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,11 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.8" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
-    <col width="8.4" customWidth="1" min="4" max="4"/>
-    <col width="10.8" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="10.8" customWidth="1" min="3" max="3"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="14.4" customWidth="1" min="5" max="5"/>
+    <col width="14.4" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,10 +472,22 @@
           <t>Pak 5 (Truck)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Caroline</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -485,17 +497,13 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>alexx</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>alexx</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -504,16 +512,24 @@
           <t>Pak 1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chirs</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Nikoline</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Nikoline</t>
         </is>
       </c>
     </row>
@@ -526,7 +542,11 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mikkel T</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -536,14 +556,26 @@
           <t>Pak 3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ole</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kaya</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>mikkels</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Niklas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mikkel T</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -576,12 +608,20 @@
           <t>Truck Job</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Caroline A</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>mikkels</t>
+          <t>Mikkel</t>
         </is>
       </c>
     </row>
@@ -589,37 +629,257 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Make 301</t>
+          <t>Pluk 1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Martin S</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Make 302</t>
+          <t>Pluk 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mikkel</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Martin S</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Pluk 3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kaya</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flow 1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Make 301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Make 302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Chirs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Make 303</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Carsten</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Make 401</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Jeppe</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Niklas</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Make 402</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Caroline A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Make 5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jeppe</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Caroline</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ditch patch kontor</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Carsten</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ditch patch</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assigned_data.xlsx
+++ b/assigned_data.xlsx
@@ -435,7 +435,11 @@
           <t>Team Manager</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mikkel</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -474,20 +478,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Caroline</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
+          <t>Chirs</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kaya</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -496,12 +496,12 @@
           <t>Pak 5 (Gulv)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Stefan</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -512,26 +512,14 @@
           <t>Pak 1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Chirs</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>David</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Nikoline</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nikoline</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -540,11 +528,15 @@
           <t>Pak 2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Kaya</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mikkel T</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -556,24 +548,16 @@
           <t>Pak 3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Ole</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kaya</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Niklas</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mikkel T</t>
+          <t>Mikkel</t>
         </is>
       </c>
     </row>
@@ -608,22 +592,18 @@
           <t>Truck Job</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Stefan</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Caroline A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>Mikkel</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -632,17 +612,13 @@
           <t>Pluk 1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ole</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Martin S</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -656,14 +632,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mikkel</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Martin S</t>
-        </is>
-      </c>
+          <t>Caroline</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -674,20 +646,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kaya</t>
+          <t>John</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -696,17 +668,17 @@
           <t>Flow 1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Stefan</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Alexander</t>
-        </is>
-      </c>
+          <t>Carsten</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -723,13 +695,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Martin S</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>Caroline A</t>
         </is>
       </c>
     </row>
@@ -743,17 +719,13 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chirs</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Peter</t>
-        </is>
-      </c>
+          <t>Jeppe</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sophie</t>
+          <t>Niklas</t>
         </is>
       </c>
     </row>
@@ -764,22 +736,14 @@
           <t>Make 303</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Carsten</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Chirs</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Peter</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -790,14 +754,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jeppe</t>
+          <t>Carsten</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nikoline</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Niklas</t>
+          <t>Caroline</t>
         </is>
       </c>
     </row>
@@ -813,17 +781,17 @@
           <t>Alex</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sophie</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Caroline A</t>
-        </is>
-      </c>
+          <t>Niklas</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -832,18 +800,18 @@
           <t>Make 5</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Jeppe</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Caroline</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Caroline A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -852,18 +820,18 @@
           <t>Ditch patch kontor</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Martin</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Carsten</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Martin S</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -874,12 +842,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Ole</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nikoline</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assigned_data.xlsx
+++ b/assigned_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16.8" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="10.8" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
-    <col width="14.4" customWidth="1" min="5" max="5"/>
-    <col width="14.4" customWidth="1" min="6" max="6"/>
+    <col width="34.8" customWidth="1" min="1" max="1"/>
+    <col width="13.2" customWidth="1" min="2" max="2"/>
+    <col width="13.2" customWidth="1" min="3" max="3"/>
+    <col width="14.4" customWidth="1" min="4" max="4"/>
+    <col width="15.6" customWidth="1" min="5" max="5"/>
+    <col width="15.6" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="8" max="8"/>
+    <col width="15.6" customWidth="1" min="9" max="9"/>
+    <col width="15.6" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -435,423 +439,747 @@
           <t>Team Manager</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mikkel</t>
-        </is>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Stations</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10-14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14-18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18-22:30</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Back up</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sen vagt - Aften</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Week and day of the week</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4:00-6:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6:00-8:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8:00-10:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:00-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12:00-14:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14:00-16:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>16-18:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>18:00-20:00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20:00-22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pak 5 (Truck)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chirs</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kaya</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pak 5 (Gulv)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Martin</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pak 1</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pak 2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kaya</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pak 5 (Gulv)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Alexander</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pak 3</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bånde Gulv</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ole</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Mikkel</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pak 4</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pak totes bord 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mezzanin</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pak totes bord 2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Truck Job</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pak totes bord 3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Stefan</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mikkel</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pluk 1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pak totes bord 4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Pluk 2</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mezzanin</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Caroline</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pluk 3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pluk 1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Alexander</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Flow 1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Stefan</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Carsten</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pluk 2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Make 301</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>David</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Martin S</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Caroline A</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pluk 3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Make 302</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Truck job 1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Jeppe</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Niklas</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Make 303</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Truck job 2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Chirs</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Make 401</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Carsten</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Recv 1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Nikoline</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Caroline</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Make 402</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Niklas</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Recv 2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Make 5</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Jeppe</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Decant 1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Caroline A</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Ditch patch kontor</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Decant 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Martin</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Martin S</t>
-        </is>
-      </c>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Ditch patch</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ole</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MC Recv/Decant</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Nikoline</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Flow 8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Flow 1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Flow 2 402</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Flow 403</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Flow 404</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Flow 3 301</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Flow 3 302</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Flow 3 303</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Flow 4 Maskine</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Flow 4 Pak 1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Flow 4 Pak 2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Flow 5</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Flow 6</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Flow 10</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Automatikmontør medhjælper</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Matriale / Kanban optælling</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Support 1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Support 2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kontor</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Alexander</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ekstra opgave gå til TL</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Retur</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
